--- a/src/Kuchyn/LEDstripEasy/power comsuptionLED.xlsx
+++ b/src/Kuchyn/LEDstripEasy/power comsuptionLED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OSTATNÍ\HomeLeds\Kuchyn\LEDstripEasy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OSTATNÍ\HomeLEDs V2\src\Kuchyn\LEDstripEasy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF582983-18D0-4B68-AFF7-2AED369233E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666A4999-B055-488C-B057-7C977542348B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F6EBC852-D4FE-47DC-8654-59D9639C1CD7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{F6EBC852-D4FE-47DC-8654-59D9639C1CD7}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>Total A</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -78,7 +84,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -94,7 +100,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -390,72 +396,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCB9DA7-AB4E-4BC1-82DD-D733266BE893}">
-  <dimension ref="C1:F5"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>122</v>
+      </c>
+      <c r="C1">
+        <v>62</v>
+      </c>
       <c r="D1">
-        <v>235</v>
+        <f>D6*C3/100</f>
+        <v>210</v>
       </c>
       <c r="E1">
         <v>255</v>
       </c>
       <c r="F1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C2">
-        <v>62</v>
-      </c>
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D2">
         <v>255</v>
       </c>
       <c r="E2">
-        <f>D2/$E$1*D1/$E$1</f>
-        <v>0.92156862745098034</v>
+        <f>D2/$E$1*$D$1/$E$1</f>
+        <v>0.82352941176470584</v>
       </c>
       <c r="F2">
-        <f>E2*$F$1*$C$2</f>
-        <v>1.1427450980392155</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+        <f>E2*$C$1*$F$1</f>
+        <v>0.91905882352941159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
       <c r="D3">
         <v>200</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E4" si="0">D3/$E$1*D2/$E$1</f>
-        <v>0.78431372549019607</v>
+        <f>D3/$E$1*$D$1/$E$1</f>
+        <v>0.64590542099192627</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F4" si="1">E3*$F$1*$C$2</f>
-        <v>0.97254901960784312</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F3:F4" si="0">E3*$C$1*$F$1</f>
+        <v>0.72083044982698963</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f>F5+F10</f>
+        <v>4.0006089965397917</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D4">
         <v>100</v>
       </c>
       <c r="E4">
+        <f t="shared" ref="E3:E4" si="1">D4/$E$1*$D$1/$E$1</f>
+        <v>0.32295271049596314</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
-        <v>0.30757400999615536</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>0.38139177239523264</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+        <v>0.36041522491349481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F5" s="1">
         <f>SUM(F2:F4)</f>
-        <v>2.4966858900422912</v>
-      </c>
+        <v>2.0003044982698959</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <f>A1-C1</f>
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>255</v>
+      </c>
+      <c r="E7">
+        <f>D7/$E$1*$D$6/$E$1</f>
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="F7">
+        <f>E7*$C$1*$F$1</f>
+        <v>0.91905882352941159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E9" si="2">D8/$E$1*$D$6/$E$1</f>
+        <v>0.64590542099192627</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F9" si="3">E8*$C$1*$F$1</f>
+        <v>0.72083044982698963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>0.32295271049596314</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>0.36041522491349481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F10" s="1">
+        <f>SUM(F7:F9)</f>
+        <v>2.0003044982698959</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
